--- a/InputFiles/INS/TC11_INS_Filter_Doc-OCC.xlsx
+++ b/InputFiles/INS/TC11_INS_Filter_Doc-OCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation0829\Commons_Automation\InputFiles\INS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852BC8B9-76D4-460E-8D34-3330459624A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235FD0FC-2E5C-46F7-B8F2-10AD7CF954CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>TabName</t>
   </si>
   <si>
-    <t>ProjectsTab</t>
-  </si>
-  <si>
     <t>DatasetsTab</t>
   </si>
   <si>
@@ -88,53 +85,6 @@
     <t>TC11_INS_Filter_Doc-OCC_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (pr:project)--&gt;(pgm:program)
-where pr.lead_doc='OCC'
-WITH DISTINCT pr, pgm
-RETURN
-coalesce(pr.project_id, '') AS `Project ID`,
-coalesce (pgm.program_id, '')AS `Program`,
-coalesce(pr.project_title, '') AS `Project Title`,
-coalesce(pr.principal_investigators, '') AS `Principal Investigators`,
-coalesce(pr.program_officers, '') AS `Program Officers`,
-coalesce(pr.lead_doc, '')AS `Lead DOC`,
-SUBSTRING(pr.project_id, 1, 3) AS `Activity code`,
-"$" + apoc.number.format(toInteger(pr.award_amount)) AS `Award Amount`,
-coalesce(pr.project_end_date, '') AS `Project End Date`,
-coalesce(pr.fiscal_year,'')AS `Fiscal Year` Order By pr.project_id Asc LIMIT 100</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(pr:project)
- where pr.lead_doc='OCC'
-OPTIONAL MATCH (pr)&lt;--(pub:publication)
-OPTIONAL MATCH (pr)&lt;--(:publication)&lt;--(dt)
-WHERE dt:geo OR dt:sra OR dt:dbgap
-OPTIONAL MATCH (ct:clinical_trial)
-WHERE EXISTS((ct)--&gt;(:publication)--&gt;(pr)) OR EXISTS((pr)&lt;--(ct))
-OPTIONAL MATCH (pr)&lt;--(pat)
-WHERE pat:granted_patent OR pat:patent_application
-WITH p, pr, pub, dt, ct, pat
-RETURN 
-COUNT(DISTINCT p.program_id)  AS Programs,
-COUNT(DISTINCT pr.project_id) as Projects,
-COUNT(DISTINCT pub.publication_id) as Publications,
- COUNT(DISTINCT dt.accession) as Datasets,
-  COUNT(DISTINCT ct.clinical_trial_id) as `Clinical Trials`,
-COUNT(DISTINCT pat.patent_id) as Patents</t>
-  </si>
-  <si>
-    <t>MATCH (p:program)&lt;--(pr:project)&lt;--(pub:publication)
-where pr.lead_doc='OCC'
-RETURN DISTINCT
-  pub.publication_id AS `PubMed ID`,
-COLLECT(DISTINCT pr.queried_project_id) AS `Project IDs`,
-pub.title AS Title,
-pub.authors AS Authors,
-pub.citation_count AS `Citation Count`,
-pub.relative_citation_ratio AS `Relative Citation Ratio`,
-pub.nih_percentile AS `NIH Percentile` Order By pub.publication_id Asc LIMIT 100</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 OPTIONAL MATCH (p:program)&lt;--(pr:project)&lt;--()&lt;--(ct:clinical_trial)
  WHERE   pr.lead_doc='OCC'
@@ -152,6 +102,64 @@
  pat.patent_id AS `Patent ID`,
 COLLECT(DISTINCT pr.queried_project_id) AS `Project IDs`,
 pat.fulfilled_date AS `Fulfilled Date` Order By pat.patent_id Asc LIMIT 100</t>
+  </si>
+  <si>
+    <t>MATCH (p:program)&lt;--(pr:project)
+where pr.lead_doc='OCC'
+OPTIONAL MATCH (pr)&lt;--(pub:publication)
+OPTIONAL MATCH (ct:clinical_trial)
+WHERE EXISTS((pr)&lt;--(pub)&lt;--(ct)) OR EXISTS((pr)&lt;--(ct))
+OPTIONAL MATCH (pr)&lt;--(pat)
+WHERE pat:patent_application OR pat:granted_patent
+OPTIONAL MATCH (pr)&lt;-[*1..2]-(dt)
+WHERE dt:sra OR dt:dbgap OR dt:geo
+WITH p, pr, pub, ct, pat, dt
+RETURN
+COUNT(DISTINCT p.program_id) AS Programs,
+COUNT(DISTINCT pr.queried_project_id) AS Projects,
+COUNT(DISTINCT pr.project_id) AS Grants,
+COUNT(DISTINCT pub.publication_id) AS Publications,
+COUNT(DISTINCT dt.accession) AS Datasets,
+COUNT(DISTINCT ct.clinical_trial_id) AS `Clinical Trials`,
+COUNT(DISTINCT pat.patent_id) AS Patents</t>
+  </si>
+  <si>
+    <t>MATCH (pr:project)--&gt;(pgm:program)
+where pr.lead_doc='OCC'
+WITH DISTINCT pr, pgm
+RETURN
+coalesce(pr.project_id , '') AS `Grant ID`,
+coalesce(pr.queried_project_id, '') AS `Project ID`,
+coalesce (pgm.program_id, '')AS `Program`,
+coalesce(pr.project_title, '') AS `Project Title`,
+coalesce(pr.principal_investigators, '') AS `Principal Investigators`,
+coalesce(pr.program_officers, '') AS `Program Officers`,
+coalesce(pr.lead_doc, '')AS `Lead DOC`,
+SUBSTRING(pr.project_id, 1, 3) AS `Activity code`,
+"$" + apoc.number.format(toInteger(pr.award_amount)) AS `Award Amount`,
+coalesce(pr.project_end_date, '') AS `Project End Date`,
+coalesce(pr.fiscal_year,'')AS `Fiscal Year`
+order by pr.project_id ASC
+LIMIT 100</t>
+  </si>
+  <si>
+    <t>GrantsTab</t>
+  </si>
+  <si>
+    <t>MATCH (pr:project)&lt;--(pub:publication)
+MATCH (pr2:project)&lt;--(pub:publication)
+    WHERE pr.lead_doc='OCC'
+WITH pub, apoc.coll.reverse(apoc.coll.sort(COLLECT(DISTINCT pr.queried_project_id)+COLLECT(DISTINCT pr2.queried_project_id) )) AS prids
+RETURN DISTINCT
+    COALESCE(pub.publication_id,'') AS `PubMed ID`,
+    apoc.text.join(apoc.coll.toSet(prids),", ") AS `Project IDs`,
+    pub.title AS Title,
+    pub.authors AS Authors,
+    pub.citation_count AS `Citation Count`,
+    pub.relative_citation_ratio AS `Relative Citation Ratio`,
+    pub.publish_date AS `Publication Date`
+order by `PubMed ID` ASC
+Limit 100</t>
   </si>
 </sst>
 </file>
@@ -201,12 +209,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,19 +532,19 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.44140625" customWidth="1"/>
-    <col min="3" max="3" width="86.109375" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="92.42578125" customWidth="1"/>
+    <col min="3" max="3" width="86.140625" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -554,89 +561,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+    <row r="2" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
